--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Indian Yellow-nosed Albatross_Amsterdam and St Paul.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Indian Yellow-nosed Albatross_Amsterdam and St Paul.xlsx
@@ -2932,13 +2932,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44DE8968-BA45-453D-971E-F44B0D8ACC24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6917065C-F40B-49EA-8961-D0D87F756F6E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C02113-E22A-4291-8BB5-396A8BEB0AD3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCD8B3A-0A0F-4E44-9BDE-00F5B05F8D93}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97E83C8-11F0-4A1B-8EC5-DA1491F8AF21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22AAD1B-52FC-42A0-BE6A-716EF4C9ABF2}"/>
 </file>